--- a/Financial Models/Scenario Analysis Video - Final.xlsx
+++ b/Financial Models/Scenario Analysis Video - Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markw\OneDrive - Zomalex Ltd\Courses\Course - Excel\Spreadsheet Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB23FEAD-6B10-467D-9BED-3F388B71EEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BFCF9C-9A06-42D1-A6B0-628BC0C513DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5EBE0B45-FAEE-4C9D-85E7-DA9E952C6525}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5EBE0B45-FAEE-4C9D-85E7-DA9E952C6525}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="BMI">_xlfn.LAMBDA(_xlpm.w,_xlpm.h, _xlpm.w / _xlpm.h^2)</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Assume that the company cannot put up it's prices so revenue is constant but inflation affects the Cost of Goods Sold (COGS)</t>
-  </si>
-  <si>
-    <t>Press F9 to recalculate. Data tables don't recalculate by default</t>
   </si>
   <si>
     <t>Probability Matrix</t>
@@ -903,42 +900,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +945,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +958,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,48 +975,48 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1119,20 +1116,20 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1143,19 +1140,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>0</v>
@@ -1163,19 +1160,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8">
         <f>_xlfn.XLOOKUP($B$12, $A$7:$A$9, $B$7:$B$9)</f>
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16" s="8">
         <f>_xlfn.XLOOKUP($B$12, $A$7:$A$9, $C$7:$C$9)</f>
-        <v>0.08</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D16" s="8">
         <f>_xlfn.XLOOKUP($B$12, $A$7:$A$9, $D$7:$D$9)</f>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="E16" s="10">
         <v>1000000</v>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="28">
         <f>E16</f>
@@ -1212,21 +1209,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="28">
         <f>F16 * (1 + $B$16)</f>
-        <v>-336000.00000000006</v>
+        <v>-321000</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,21 +1238,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="28">
         <f>SUM(B23:B24)</f>
-        <v>-536000</v>
+        <v>-521000</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="36">
         <f>SUM(B21:B24)</f>
-        <v>464000</v>
+        <v>479000</v>
       </c>
       <c r="C26" s="7"/>
     </row>
@@ -1266,23 +1263,23 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="37">
         <f>-G16*$C$16</f>
-        <v>-400000</v>
+        <v>-225000</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="36">
         <f>B26+B28</f>
-        <v>64000</v>
+        <v>254000</v>
       </c>
       <c r="C29" s="7"/>
     </row>
@@ -1293,23 +1290,23 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="37">
-        <f>-B26 * $D$16</f>
-        <v>-116000</v>
+        <f>-IF(B29&gt;0, B26 * $D$16, 0)</f>
+        <v>-86220</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="28">
         <f>SUM(B26:B31)</f>
-        <v>12000</v>
+        <v>421780</v>
       </c>
       <c r="C32" s="7"/>
     </row>
@@ -1322,7 +1319,7 @@
       </c>
       <c r="B34" s="40">
         <f>B32/B21</f>
-        <v>1.2E-2</v>
+        <v>0.42177999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,23 +1332,21 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
@@ -1365,7 +1360,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1384,7 +1379,7 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="26">
         <f>B32</f>
-        <v>12000</v>
+        <v>421780</v>
       </c>
       <c r="D44" s="48">
         <f>C7</f>
@@ -1411,14 +1406,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D45" s="27">
-        <f t="dataTable" ref="D45:F47" dt2D="1" dtr="1" r1="C16" r2="B16" ca="1"/>
-        <v>134250</v>
+        <f t="dataTable" ref="D45:F47" dt2D="1" dtr="1" r1="C16" r2="B16"/>
+        <v>421780</v>
       </c>
       <c r="E45" s="27">
-        <v>59250</v>
+        <v>271780</v>
       </c>
       <c r="F45" s="27">
-        <v>-40750</v>
+        <v>71780</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,13 +1426,13 @@
         <v>0.09</v>
       </c>
       <c r="D46" s="27">
-        <v>129750</v>
+        <v>410860</v>
       </c>
       <c r="E46" s="27">
-        <v>54750</v>
+        <v>260860</v>
       </c>
       <c r="F46" s="27">
-        <v>-45250</v>
+        <v>60860</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,13 +1444,13 @@
         <v>0.2</v>
       </c>
       <c r="D47" s="27">
-        <v>105000</v>
+        <v>350800</v>
       </c>
       <c r="E47" s="27">
-        <v>30000</v>
+        <v>200800</v>
       </c>
       <c r="F47" s="27">
-        <v>-70000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,7 +1458,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -1570,7 +1565,7 @@
     <row r="55" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1"/>
     </row>
@@ -1591,15 +1586,15 @@
       </c>
       <c r="D59" s="27">
         <f t="shared" ref="D59:F61" si="3">D45*D51</f>
-        <v>4027.5</v>
+        <v>12653.4</v>
       </c>
       <c r="E59" s="27">
         <f t="shared" si="3"/>
-        <v>3555</v>
+        <v>16306.8</v>
       </c>
       <c r="F59" s="27">
         <f t="shared" si="3"/>
-        <v>-407.50000000000006</v>
+        <v>717.80000000000018</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,15 +1603,15 @@
       </c>
       <c r="D60" s="27">
         <f t="shared" si="3"/>
-        <v>19462.5</v>
+        <v>61629</v>
       </c>
       <c r="E60" s="27">
         <f t="shared" si="3"/>
-        <v>16425</v>
+        <v>78258</v>
       </c>
       <c r="F60" s="27">
         <f t="shared" si="3"/>
-        <v>-2262.5</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,28 +1620,28 @@
       </c>
       <c r="D61" s="27">
         <f t="shared" si="3"/>
-        <v>12600</v>
+        <v>42096</v>
       </c>
       <c r="E61" s="27">
         <f t="shared" si="3"/>
-        <v>7200</v>
+        <v>48192</v>
       </c>
       <c r="F61" s="27">
         <f t="shared" si="3"/>
-        <v>-2800.0000000000005</v>
+        <v>32.000000000000007</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="27">
         <f>SUM(D59:F61)</f>
-        <v>57800</v>
+        <v>262928</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{E582D7BE-3A78-4FE5-9EB3-255E49A07177}">
       <formula1>"Best,Central,Worst"</formula1>
     </dataValidation>
